--- a/generated_pdfs/LPA_Calendar_Pune_November_2025.xlsx
+++ b/generated_pdfs/LPA_Calendar_Pune_November_2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="51">
   <si>
     <t>NOVEMBER 2025</t>
   </si>
@@ -49,79 +49,67 @@
     <t>Holiday</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>rs</t>
+    <t>SK</t>
   </si>
   <si>
     <t>CHC TATA 1.2 NA Line</t>
   </si>
   <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>VS</t>
+    <t>JAB, Ss</t>
   </si>
   <si>
     <t>Continuous Paper Line</t>
   </si>
   <si>
-    <t>tj</t>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Ss</t>
   </si>
   <si>
     <t>Flat Clamp Assembly Line</t>
   </si>
   <si>
-    <t>RR</t>
+    <t>JAB</t>
   </si>
   <si>
     <t>Hydraulic Element Line</t>
   </si>
   <si>
+    <t>PPT</t>
+  </si>
+  <si>
     <t>Line-15</t>
   </si>
   <si>
     <t>Oil Assembly Line</t>
   </si>
   <si>
-    <t>vk</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>dk</t>
+    <t>SBM</t>
   </si>
   <si>
     <t>Out Source Line</t>
   </si>
   <si>
-    <t>am</t>
+    <t>PRS</t>
   </si>
   <si>
     <t>P125 Air Cleaner Assembly Line</t>
   </si>
   <si>
-    <t>HR, rs</t>
-  </si>
-  <si>
     <t>PU Assembly Child Parts</t>
   </si>
   <si>
     <t>PU Assembly Elements</t>
   </si>
   <si>
-    <t>PU Line-1 Packing Elements</t>
-  </si>
-  <si>
     <t>PU Line-2 Round Mould</t>
   </si>
   <si>
     <t>PU Line-2 Square Mould</t>
+  </si>
+  <si>
+    <t>JM</t>
   </si>
   <si>
     <t>PU-1 Line</t>
@@ -242,12 +230,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB3D9FF"/>
+        <fgColor rgb="FFE2C2FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2C2FF"/>
+        <fgColor rgb="FFB3D9FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -667,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -915,12 +903,12 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
@@ -943,9 +931,7 @@
         <v>11</v>
       </c>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
@@ -956,119 +942,73 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1091,16 +1031,14 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
@@ -1119,15 +1057,15 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1147,17 +1085,19 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1186,9 +1126,7 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="6" t="s">
         <v>11</v>
@@ -1196,7 +1134,7 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
@@ -1207,15 +1145,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1227,9 +1165,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="W9" s="5"/>
       <c r="X9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1245,68 +1181,48 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>25</v>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y10" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="6" t="s">
         <v>11</v>
@@ -1314,21 +1230,19 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="6" t="s">
         <v>11</v>
@@ -1363,7 +1277,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
@@ -1381,7 +1295,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="6" t="s">
@@ -1389,12 +1305,12 @@
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="W12" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="X12" s="6" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1326,7 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
@@ -1436,7 +1352,9 @@
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="T13" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -1444,12 +1362,12 @@
         <v>11</v>
       </c>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AC13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="6" t="s">
         <v>11</v>
@@ -1457,7 +1375,7 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
@@ -1492,19 +1410,19 @@
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
+      <c r="AD14" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="AE14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
@@ -1540,8 +1458,8 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="9" t="s">
-        <v>19</v>
+      <c r="AB15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -1551,7 +1469,7 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
@@ -1584,13 +1502,15 @@
       <c r="X16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y16" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="AA16" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AC16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="6" t="s">
         <v>11</v>
@@ -1598,7 +1518,7 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
@@ -1614,7 +1534,9 @@
         <v>11</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1627,9 +1549,7 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="W17" s="5"/>
       <c r="X17" s="6" t="s">
         <v>11</v>
       </c>
@@ -1645,11 +1565,9 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
@@ -1657,14 +1575,14 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -1683,7 +1601,9 @@
         <v>11</v>
       </c>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="Z18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -1694,7 +1614,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -1703,9 +1623,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
@@ -1714,10 +1632,10 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="6" t="s">
         <v>11</v>
@@ -1743,7 +1661,7 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -1759,11 +1677,11 @@
         <v>11</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="6" t="s">
@@ -1774,7 +1692,9 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="X20" s="6" t="s">
         <v>11</v>
       </c>
@@ -1782,9 +1702,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="6" t="s">
         <v>11</v>
@@ -1792,24 +1710,26 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -1839,80 +1759,56 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="P22" s="5"/>
       <c r="Q22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="R22" s="5"/>
-      <c r="S22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="W22" s="5"/>
       <c r="X22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD22" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD22" s="5"/>
       <c r="AE22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
@@ -1922,9 +1818,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
         <v>11</v>
@@ -1934,9 +1828,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="P23" s="5"/>
       <c r="Q23" s="6" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1842,9 @@
         <v>11</v>
       </c>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="Z23" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -1961,7 +1855,7 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
@@ -1989,14 +1883,14 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y24" s="5"/>
+      <c r="Y24" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -2008,7 +1902,7 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
@@ -2023,9 +1917,7 @@
       <c r="J25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -2037,8 +1929,8 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="9" t="s">
-        <v>19</v>
+      <c r="U25" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -2057,7 +1949,7 @@
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -2081,13 +1973,13 @@
       <c r="Q26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R26" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="V26" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="W26" s="5"/>
       <c r="X26" s="6" t="s">
         <v>11</v>
@@ -2104,7 +1996,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
@@ -2124,14 +2016,14 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="P27" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="Q27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="R27" s="5"/>
-      <c r="S27" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -2151,7 +2043,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -2168,16 +2060,16 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R28" s="5"/>
+      <c r="R28" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -2196,75 +2088,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" t="s">
         <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
